--- a/resources/templates/seo/2022/12/KWR.xlsx
+++ b/resources/templates/seo/2022/12/KWR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ditsy/FlutterProjects/flet_app/resources/templates/seo/2022/12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5C4487-49B2-F94A-A8D4-3D24829D0E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DA810F-0964-724F-96AB-17665B126AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Dado que se ha decidido dividir la web en dos grandes directorios independientes "apuestas deportivas" y "casino online" proponemos una adaptacion de la arquitectura y del estudio de palabras clave. 
@@ -58,6 +59,7 @@
         <sz val="14"/>
         <color rgb="FFEA4335"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Este documento se subdivide en 6 hojas:</t>
     </r>
@@ -66,6 +68,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 - Categorías: URLs que se encuentrar en un nivel 1 (N1) o a un click para el usuario desde la nueva home/landing page
@@ -81,6 +84,7 @@
         <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Información relevante para una mejor compresión del documento:</t>
     </r>
@@ -89,6 +93,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Las celadas amarillas son aquellas categorías o subcategorías que no existen o que proponemos hacer algun cambio en la nomenclatura de la URL.
@@ -103,6 +108,7 @@
         <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Arquitectura en pdf - xmind
 </t>
@@ -112,6 +118,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Para una mejor compresión de este mismo documento, hemos creado un esquema visual de la aquitectura del menu. Puedes acceder al pdf desde aquí.
 Tiene exactamente la misma arquitectura que la presente en este documento. Se especifica la palabra clave principal por url, y a modo de comendatios, la url actual, la url propuesta y si es necesario hacer algun cambio en el código de respuesta del servidor.
@@ -197,6 +204,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Agencia DM: </t>
     </r>
@@ -205,6 +213,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Solicitud de rastreo prioritario en Search console una vez sea accesible.
 Redirección no necesaria.</t>
@@ -241,6 +250,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Agencia DM: </t>
     </r>
@@ -249,6 +259,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Solicitud de rastreo prioritario en Search console una vez sea accesible.
 </t>
@@ -259,6 +270,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Equipo Atlantic city:</t>
     </r>
@@ -267,6 +279,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Crear nueva URL
 Redirección no necesaria.</t>
@@ -327,6 +340,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Equipo Atlantic city: </t>
     </r>
@@ -335,6 +349,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>eliminar dependencias de JavaScrip, de forma el bot de google sea capaz de leer el contenido sin tener que ejecutar JavaScrip. Para comprobar como lo ve el bot de google podeis ver el cache directamente en Google.
 Redirección no necesaria.</t>
@@ -445,6 +460,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Es necesario cambiar el código de respuesta del servidor. Hacer una </t>
     </r>
@@ -454,6 +470,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">redirección permanente 301 </t>
     </r>
@@ -462,6 +479,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>de la url antigua a la url nueva</t>
     </r>
@@ -511,6 +529,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Es necesario cambiar el código de respuesta del servidor. Hacer una </t>
     </r>
@@ -520,6 +539,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">redirección permanente 301 </t>
     </r>
@@ -528,6 +548,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>de la url antigua a la url nueva</t>
     </r>
@@ -565,6 +586,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Es necesario cambiar el código de respuesta del servidor. Hacer una </t>
     </r>
@@ -574,6 +596,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">redirección permanente 301 </t>
     </r>
@@ -582,6 +605,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>de la url antigua a la url nueva</t>
     </r>
@@ -619,6 +643,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Es necesario cambiar el código de respuesta del servidor. Hacer una </t>
     </r>
@@ -628,6 +653,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">redirección permanente 301 </t>
     </r>
@@ -636,6 +662,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>de la url antigua a la url nueva</t>
     </r>
@@ -685,6 +712,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Es necesario cambiar el código de respuesta del servidor. Hacer una </t>
     </r>
@@ -694,6 +722,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">redirección permanente 301 </t>
     </r>
@@ -702,6 +731,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>de la url antigua a la url nueva</t>
     </r>
@@ -746,6 +776,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Es necesario cambiar el código de respuesta del servidor. Hacer una </t>
     </r>
@@ -755,6 +786,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">redirección permanente 301 </t>
     </r>
@@ -763,6 +795,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>de la url antigua a la url nueva</t>
     </r>
@@ -809,6 +842,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Es necesario cambiar el código de respuesta del servidor. Hacer una </t>
     </r>
@@ -818,6 +852,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">redirección permanente 301 </t>
     </r>
@@ -826,6 +861,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>de la url antigua a la url nueva</t>
     </r>
@@ -878,6 +914,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Es necesario cambiar el código de respuesta del servidor. Hacer una </t>
     </r>
@@ -887,6 +924,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">redirección permanente 301 </t>
     </r>
@@ -895,6 +933,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>de la url antigua a la url nueva</t>
     </r>
@@ -926,6 +965,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Es necesario cambiar el código de respuesta del servidor. Hacer una </t>
     </r>
@@ -935,6 +975,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">redirección permanente 301 </t>
     </r>
@@ -943,6 +984,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>de la url antigua a la url nueva</t>
     </r>
@@ -1206,6 +1248,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Es necesario cambiar el código de respuesta del servidor. Hacer una </t>
     </r>
@@ -1215,6 +1258,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">redirección permanente 301 </t>
     </r>
@@ -1223,6 +1267,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>de la url antigua a la url nueva</t>
     </r>
@@ -1276,6 +1321,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Equipo Atlantic City: </t>
     </r>
@@ -1284,6 +1330,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Crear nueva URL</t>
     </r>
@@ -1763,6 +1810,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Equipo Atlantic City: </t>
     </r>
@@ -1771,6 +1819,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Crear nueva URL</t>
     </r>
@@ -1933,7 +1982,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1944,6 +1993,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1951,23 +2001,27 @@
       <sz val="14"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1975,144 +2029,176 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFEA4335"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2220,10 +2306,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2405,6 +2492,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2412,11 +2502,15 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -2682,7 +2776,7 @@
     <col min="1" max="1" width="219.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3094,11 +3188,11 @@
   </sheetPr>
   <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
@@ -3106,7 +3200,7 @@
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="46.6640625" customWidth="1"/>
     <col min="6" max="6" width="56.6640625" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="77" customWidth="1"/>
     <col min="8" max="8" width="23.33203125" customWidth="1"/>
     <col min="9" max="9" width="5.6640625" customWidth="1"/>
     <col min="10" max="10" width="23.33203125" customWidth="1"/>
@@ -3133,7 +3227,7 @@
     <col min="31" max="31" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>62</v>
       </c>
@@ -3228,19 +3322,19 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:31" ht="98" x14ac:dyDescent="0.15">
+      <c r="A2" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="68" t="s">
         <v>81</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="69" t="s">
         <v>83</v>
       </c>
       <c r="G2" s="25" t="s">
@@ -3313,9 +3407,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
+    <row r="3" spans="1:31" ht="98" x14ac:dyDescent="0.15">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
       <c r="C3" s="26" t="s">
         <v>94</v>
       </c>
@@ -3325,7 +3419,7 @@
       <c r="E3" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="69" t="s">
         <v>97</v>
       </c>
       <c r="G3" s="25" t="s">
@@ -3378,9 +3472,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
+    <row r="4" spans="1:31" ht="98" x14ac:dyDescent="0.15">
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="25" t="s">
         <v>104</v>
       </c>
@@ -3443,9 +3537,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
+    <row r="5" spans="1:31" ht="98" x14ac:dyDescent="0.15">
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="25" t="s">
         <v>114</v>
       </c>
@@ -3528,9 +3622,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
+    <row r="6" spans="1:31" ht="84" x14ac:dyDescent="0.15">
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="25" t="s">
         <v>128</v>
       </c>
@@ -3597,9 +3691,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
+    <row r="7" spans="1:31" ht="56" x14ac:dyDescent="0.15">
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="31" t="s">
         <v>138</v>
       </c>
@@ -3640,9 +3734,9 @@
       <c r="AD7" s="28"/>
       <c r="AE7" s="28"/>
     </row>
-    <row r="8" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
+    <row r="8" spans="1:31" ht="98" x14ac:dyDescent="0.15">
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="31" t="s">
         <v>141</v>
       </c>
@@ -3721,9 +3815,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
+    <row r="9" spans="1:31" ht="112" x14ac:dyDescent="0.15">
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="25" t="s">
         <v>153</v>
       </c>
@@ -3806,9 +3900,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
+    <row r="10" spans="1:31" ht="84" x14ac:dyDescent="0.15">
+      <c r="A10" s="67"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="25" t="s">
         <v>168</v>
       </c>
@@ -3867,9 +3961,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
+    <row r="11" spans="1:31" ht="98" x14ac:dyDescent="0.15">
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="25" t="s">
         <v>176</v>
       </c>
@@ -3932,9 +4026,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
+    <row r="12" spans="1:31" ht="112" x14ac:dyDescent="0.15">
+      <c r="A12" s="67"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="33" t="s">
         <v>22</v>
       </c>
@@ -4005,9 +4099,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="66"/>
-      <c r="B13" s="66"/>
+    <row r="13" spans="1:31" ht="84" x14ac:dyDescent="0.15">
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="33" t="s">
         <v>22</v>
       </c>
@@ -4074,16 +4168,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="65" t="s">
+    <row r="14" spans="1:31" ht="98" x14ac:dyDescent="0.15">
+      <c r="A14" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="68" t="s">
         <v>204</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="68" t="s">
+      <c r="E14" s="65" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="24" t="s">
@@ -4155,9 +4249,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="66"/>
-      <c r="B15" s="66"/>
+    <row r="15" spans="1:31" ht="56" x14ac:dyDescent="0.15">
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="31" t="s">
         <v>215</v>
       </c>
@@ -4198,9 +4292,9 @@
       <c r="AD15" s="25"/>
       <c r="AE15" s="25"/>
     </row>
-    <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
+    <row r="16" spans="1:31" ht="56" x14ac:dyDescent="0.15">
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="31" t="s">
         <v>218</v>
       </c>
@@ -4241,9 +4335,9 @@
       <c r="AD16" s="25"/>
       <c r="AE16" s="25"/>
     </row>
-    <row r="17" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
+    <row r="17" spans="1:31" ht="98" x14ac:dyDescent="0.15">
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="36" t="s">
         <v>22</v>
       </c>
@@ -4310,9 +4404,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
+    <row r="18" spans="1:31" ht="98" x14ac:dyDescent="0.15">
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="36" t="s">
         <v>22</v>
       </c>
@@ -4383,9 +4477,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
+    <row r="19" spans="1:31" ht="112" x14ac:dyDescent="0.15">
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="36" t="s">
         <v>22</v>
       </c>
@@ -4468,9 +4562,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="66"/>
-      <c r="B20" s="66"/>
+    <row r="20" spans="1:31" ht="98" x14ac:dyDescent="0.15">
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="36" t="s">
         <v>22</v>
       </c>
@@ -4561,7 +4655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:31" ht="112" x14ac:dyDescent="0.15">
       <c r="A21" s="21" t="s">
         <v>260</v>
       </c>
@@ -4654,7 +4748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:31" ht="98" x14ac:dyDescent="0.15">
       <c r="A22" s="21" t="s">
         <v>22</v>
       </c>
